--- a/xlsx/哈维穆德学院_intext.xlsx
+++ b/xlsx/哈维穆德学院_intext.xlsx
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E9%95%B7</t>
   </si>
   <si>
-    <t>校長</t>
+    <t>校长</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Maria_Klawe</t>
